--- a/biology/Biologie cellulaire et moléculaire/Hsp70/Hsp70.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Hsp70/Hsp70.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">HSP signifie protéines de choc thermique (heat shock proteins). Ce sont en fait des protéines chaperonnes, de classe 1. En effet, elles sont garantes de la bonne conformation des protéines de la cellule, et les aide à se protéger des stress externes[1],[2]. Le suffixe « 70 » correspond au poids moléculaire (70 kdaltons)
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">HSP signifie protéines de choc thermique (heat shock proteins). Ce sont en fait des protéines chaperonnes, de classe 1. En effet, elles sont garantes de la bonne conformation des protéines de la cellule, et les aide à se protéger des stress externes,. Le suffixe « 70 » correspond au poids moléculaire (70 kdaltons)
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Découverte</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les membres de la famille Hsp70 sont fortement régulatrices du stress dû à la chaleur et les produits chimiques toxiques, en particulier les métaux lourds comme l'arsenic, le cadmium, cuivre, mercure, etc. Hsp70 a été initialement découverte par Ferrucio Ritossa (1936-2014) dans les années 1960 quand un travailleur de laboratoire a accidentellement augmenté la température d'incubation d'une culture de Drosophiles (mouches des fruits). Lors de l'examen des chromosomes, Ritossa a trouvé une augmentation de la transcription des gènes d'une protéine inconnue[3],[4]. Cela fut plus tard décrit comme la «Heat Shock Response» et les protéines ont été appelées « Heat Shock Proteins » (Hsps).
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les membres de la famille Hsp70 sont fortement régulatrices du stress dû à la chaleur et les produits chimiques toxiques, en particulier les métaux lourds comme l'arsenic, le cadmium, cuivre, mercure, etc. Hsp70 a été initialement découverte par Ferrucio Ritossa (1936-2014) dans les années 1960 quand un travailleur de laboratoire a accidentellement augmenté la température d'incubation d'une culture de Drosophiles (mouches des fruits). Lors de l'examen des chromosomes, Ritossa a trouvé une augmentation de la transcription des gènes d'une protéine inconnue,. Cela fut plus tard décrit comme la «Heat Shock Response» et les protéines ont été appelées « Heat Shock Proteins » (Hsps).
 </t>
         </is>
       </c>
@@ -544,15 +558,15 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Fonctionnement général
-Les protéines de la famille des HSP70 fonctionnent sous forme de dimères. Elles ont un fonctionnement fondé sur leur flexibilité et leur capacité à lier des zones d'interactions hydrophobe. on distingue deux cas :
+          <t>Fonctionnement général</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Les protéines de la famille des HSP70 fonctionnent sous forme de dimères. Elles ont un fonctionnement fondé sur leur flexibilité et leur capacité à lier des zones d'interactions hydrophobe. on distingue deux cas :
 si la protéines est labile (facilement modifiable), l'ATP ne sera pas nécessaire ;
-alors que si la protéines est structurée de manière forte, l'ATP devra intervenir.
-Structure
-Toutes les protéines Hsp70 ont trois grands domaines fonctionnels :
-un « domaine N-terminal » du domaine ATPase lie l'ATP (adénosine triphosphate) et l'hydrolyse en ADP (adénosine diphosphate). L'échange de l'ATP réalise des changements conformationnels dans les deux autres domaines ;
-un « domaine de fixation du substrat » avec une affinité pour les molécules neutres, d'acides aminés hydrophobes résidus. Le domaine est suffisamment long pour interagir avec des peptides jusqu'à sept résidus de longueur ;
-un « domaine C-terminal » riche en structure en hélice alpha, qui agit comme un « couvercle » pour le domaine de fixation du substrat. Quand une protéine Hsp70 est liée à l'ATP, le couvercle est ouvert et relâche relativement rapidement le peptide. Lorsque les protéines Hsp70 sont liées à l'ADP, le couvercle est fermé, et les peptides sont étroitement liés au domaine de fixation du substrat.</t>
+alors que si la protéines est structurée de manière forte, l'ATP devra intervenir.</t>
         </is>
       </c>
     </row>
@@ -577,10 +591,51 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Structure</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Structure</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Toutes les protéines Hsp70 ont trois grands domaines fonctionnels :
+un « domaine N-terminal » du domaine ATPase lie l'ATP (adénosine triphosphate) et l'hydrolyse en ADP (adénosine diphosphate). L'échange de l'ATP réalise des changements conformationnels dans les deux autres domaines ;
+un « domaine de fixation du substrat » avec une affinité pour les molécules neutres, d'acides aminés hydrophobes résidus. Le domaine est suffisamment long pour interagir avec des peptides jusqu'à sept résidus de longueur ;
+un « domaine C-terminal » riche en structure en hélice alpha, qui agit comme un « couvercle » pour le domaine de fixation du substrat. Quand une protéine Hsp70 est liée à l'ATP, le couvercle est ouvert et relâche relativement rapidement le peptide. Lorsque les protéines Hsp70 sont liées à l'ADP, le couvercle est fermé, et les peptides sont étroitement liés au domaine de fixation du substrat.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Hsp70</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hsp70</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Fonction et régulation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La chaleur est un des plus grands ennemis des protéines puisque cela modifie le repliement et par conséquent, altère la fonction de la protéine. Dès lors, l'évolution a mis en place des systèmes permettant d'éviter cette dénaturation par la chaleur pour ne pas avoir à remplacer trop souvent les protéines dénaturées (le recyclage des protéines est appelé le « turn-over »). Le rôle des HSP est de garantir la bonne conformation des protéines dans la cellule. 
 Les HSP se distinguent par le fait qu'elles possèdent plus d'acides aminés capables d'établir de fortes interactions entre eux que les protéines « normales », c'est-à-dire, non-HSP. Par conséquent, les HSP sont donc moins « flexibles » et moins sensibles à la chaleur.
@@ -590,37 +645,6 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Hsp70</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Hsp70</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Cancer</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">HSP 70 est surexprimé dans les mélanomes malins et sousexprimé dans les cellules rénales cancéreuses.
-</t>
-        </is>
-      </c>
-    </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
@@ -642,18 +666,53 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Cancer</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">HSP 70 est surexprimé dans les mélanomes malins et sousexprimé dans les cellules rénales cancéreuses.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Hsp70</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hsp70</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Membre de la famille</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les procaryotes expriment trois protéines Hsp70: DnaK, HscA (Hsc66), et HscC (Hsc62)[5]. 
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les procaryotes expriment trois protéines Hsp70: DnaK, HscA (Hsc66), et HscC (Hsc62). 
 Les organismes eucaryotes expriment plusieurs protéines Hsp70 légèrement différentes (car très conservées au cours de l'évolution étant donné qu'elles sont essentielles). Toutes partagent la même structure de domaine, mais chacune a un modèle unique d'expression.
 Hsc70 (Hsp73/HSPA8) est constitutivement dite protéine chaperon. Elle représente généralement 1 à 3% du total des protéines cellulaires.
 Hsp72 (HSPA1A) est une protéine induite par le stress. Des concentrations élevées peuvent être produites par les cellules en réponse à une hyperthermie, un stress oxydatif, et des changements de pH.
 Binding immunoglobulin protein (BIP ou Grp78) est une protéine localisée au niveau du réticulum endoplasmique. Elle est impliquée dans le repliement des protéines, et sa concentration et fonction varie en réponse au stress ou à la famine.
 mtHsp70 ou Grp75 est la Hsp70 mitochondriale.
-Ce qui suit est une liste des gènes d'Hsp70 de l'homme et de leurs protéines correspondantes[1]:
+Ce qui suit est une liste des gènes d'Hsp70 de l'homme et de leurs protéines correspondantes:
 </t>
         </is>
       </c>
